--- a/raspagem_limpa_brasil.xlsx
+++ b/raspagem_limpa_brasil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47377942878\Desktop\Limpa Brasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D77783-4638-4D40-A9F8-B0A0A0AE5A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CC40C2-82A8-49D3-9704-BFE0763C1CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4440,11 +4440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A765" sqref="A765"/>
+    <sheetView tabSelected="1" topLeftCell="A631" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H644" sqref="H644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4465,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -5026,7 +5025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>196</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>221</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>250</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>271</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>274</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>275</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>278</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>282</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>284</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>253</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>253</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>292</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>297</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>300</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>302</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>303</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>306</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>308</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>313</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>316</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>319</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>321</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>327</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>342</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>344</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>347</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>349</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>352</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>354</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>356</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>358</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>360</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>363</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>365</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>366</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -6500,7 +6499,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>379</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>382</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>383</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>386</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>388</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>390</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>394</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>396</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>398</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>408</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>410</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>413</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>417</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>426</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>435</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>443</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>457</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>465</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>468</v>
       </c>
@@ -7061,7 +7060,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>469</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>470</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>473</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>475</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>478</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>480</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>426</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>483</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>484</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>486</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>489</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>491</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>494</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>495</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>496</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>498</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>499</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>501</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>502</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>505</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>507</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>509</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>511</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>513</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>515</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>517</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>520</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>521</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>523</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>524</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>525</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>526</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>528</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>529</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>530</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>533</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>534</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>536</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>538</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>539</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>540</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>541</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>544</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>547</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>549</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>552</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>554</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>555</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>557</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>559</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>560</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>562</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>564</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>566</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>460</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>567</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>569</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>570</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>572</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>460</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>573</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>576</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>577</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>579</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>580</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>582</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>583</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>585</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>586</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>587</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>589</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>590</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>591</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>593</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>595</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>596</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>460</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>597</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>599</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>601</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>604</v>
       </c>
@@ -8018,7 +8017,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>606</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>608</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>609</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>610</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>611</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>613</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>615</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>617</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>618</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>620</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>622</v>
       </c>
@@ -8150,7 +8149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>623</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>625</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>626</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>627</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>628</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>630</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>631</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>632</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>460</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>634</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>636</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>637</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>638</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>640</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>641</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>642</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>643</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>645</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>645</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>647</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>649</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>651</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>653</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>655</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>656</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>658</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>660</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>661</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>662</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>664</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>426</v>
       </c>
@@ -8535,7 +8534,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>667</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>668</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>670</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>672</v>
       </c>
@@ -8579,7 +8578,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>673</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>675</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>676</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>678</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>679</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>680</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>681</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>683</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>684</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>685</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>686</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>687</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>688</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>689</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>690</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>691</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>693</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>694</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>695</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>696</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>698</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>700</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>702</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>704</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>706</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>708</v>
       </c>
@@ -8898,7 +8897,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>710</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>711</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>712</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>713</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>715</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>716</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>718</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>719</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>722</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>723</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>724</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>725</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>726</v>
       </c>
@@ -9063,7 +9062,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>727</v>
       </c>
@@ -9074,7 +9073,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>728</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>426</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>730</v>
       </c>
@@ -9107,7 +9106,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>731</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>732</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>733</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>734</v>
       </c>
@@ -9151,7 +9150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>736</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>739</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>741</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>743</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>744</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>745</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>747</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>750</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>751</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>753</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>755</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>758</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>759</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>324</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>760</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>761</v>
       </c>
@@ -9349,7 +9348,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>762</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>763</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>764</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>765</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>768</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>770</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>772</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>773</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>774</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>776</v>
       </c>
@@ -9459,7 +9458,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>777</v>
       </c>
@@ -9470,7 +9469,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>778</v>
       </c>
@@ -9481,7 +9480,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>779</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>781</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>783</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>784</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>786</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>789</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>791</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>793</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>795</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>797</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>799</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>801</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>803</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>804</v>
       </c>
@@ -9635,7 +9634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>806</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>807</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>808</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>814</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>815</v>
       </c>
@@ -9723,7 +9722,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>817</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>819</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>820</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>821</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>822</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>823</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>826</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>828</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>829</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>830</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>831</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>832</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>426</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>833</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>834</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>836</v>
       </c>
@@ -9932,7 +9931,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>838</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>839</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>845</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>846</v>
       </c>
@@ -10020,7 +10019,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>848</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>849</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>851</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>852</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>853</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>855</v>
       </c>
@@ -10097,7 +10096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>793</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>856</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>858</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>860</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>862</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>865</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>866</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>868</v>
       </c>
@@ -10251,7 +10250,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>873</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>875</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>877</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>880</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>882</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>884</v>
       </c>
@@ -10328,7 +10327,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>887</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>890</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>891</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>892</v>
       </c>
@@ -10383,7 +10382,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>893</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>894</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>896</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>898</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>900</v>
       </c>
@@ -10438,7 +10437,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>902</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>902</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>904</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>906</v>
       </c>
@@ -10482,7 +10481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>908</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>910</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>913</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>915</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>916</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>919</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>921</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>923</v>
       </c>
@@ -10581,7 +10580,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>926</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>928</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>930</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>932</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>937</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>180</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>940</v>
       </c>
@@ -10680,7 +10679,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>944</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>946</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>949</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>956</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>958</v>
       </c>
@@ -10768,7 +10767,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>960</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>963</v>
       </c>
@@ -10790,7 +10789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>964</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>964</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>965</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>967</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>247</v>
       </c>
@@ -10856,7 +10855,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>971</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>972</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>973</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>975</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>979</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>981</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>983</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>985</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>987</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>990</v>
       </c>
@@ -10988,7 +10987,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>994</v>
       </c>
@@ -10999,7 +10998,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>996</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>999</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1001</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1004</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1006</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1008</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1010</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1012</v>
       </c>
@@ -11087,7 +11086,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1014</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1017</v>
       </c>
@@ -11120,7 +11119,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1021</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1025</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1027</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1030</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1032</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1034</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1036</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1042</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1044</v>
       </c>
@@ -11252,7 +11251,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1047</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1050</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1052</v>
       </c>
@@ -11307,7 +11306,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1056</v>
       </c>
@@ -11318,7 +11317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1057</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>247</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1059</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1064</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1066</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1072</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1076</v>
       </c>
@@ -11483,7 +11482,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1083</v>
       </c>
@@ -11505,7 +11504,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1086</v>
       </c>
@@ -11538,7 +11537,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1091</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1093</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1099</v>
       </c>
@@ -11604,7 +11603,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1103</v>
       </c>
@@ -11615,7 +11614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1105</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1113</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1114</v>
       </c>
@@ -11692,7 +11691,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1116</v>
       </c>
@@ -11703,7 +11702,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1117</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1118</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1122</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1124</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1126</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1136</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1146</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1150</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1151</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1155</v>
       </c>
@@ -11967,7 +11966,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1157</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1163</v>
       </c>
@@ -12088,7 +12087,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1036</v>
       </c>
@@ -12099,7 +12098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1176</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1180</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1182</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1186</v>
       </c>
@@ -12165,7 +12164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1188</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1194</v>
       </c>
@@ -12209,7 +12208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1196</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="707" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1197</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1199</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1201</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1202</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>234</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1205</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="713" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1207</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1208</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1210</v>
       </c>
@@ -12319,7 +12318,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1208</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1208</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1213</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1215</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1217</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1223</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1225</v>
       </c>
@@ -12429,7 +12428,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1229</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1232</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1234</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1243</v>
       </c>
@@ -12539,7 +12538,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1245</v>
       </c>
@@ -12561,7 +12560,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1250</v>
       </c>
@@ -12572,7 +12571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1252</v>
       </c>
@@ -12583,7 +12582,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1254</v>
       </c>
@@ -12594,7 +12593,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1256</v>
       </c>
@@ -12605,7 +12604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1258</v>
       </c>
@@ -12627,7 +12626,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1262</v>
       </c>
@@ -12638,7 +12637,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1263</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1265</v>
       </c>
@@ -12660,7 +12659,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1266</v>
       </c>
@@ -12671,7 +12670,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1268</v>
       </c>
@@ -12682,7 +12681,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1270</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1272</v>
       </c>
@@ -12715,7 +12714,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1276</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1278</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1280</v>
       </c>
@@ -12770,7 +12769,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1284</v>
       </c>
@@ -12792,7 +12791,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1288</v>
       </c>
@@ -12847,7 +12846,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="764" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1297</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1301</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1303</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1309</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1312</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1314</v>
       </c>
@@ -12957,7 +12956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1315</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1316</v>
       </c>
@@ -12990,7 +12989,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1318</v>
       </c>
@@ -13001,7 +13000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1319</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1036</v>
       </c>
@@ -13056,7 +13055,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1324</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1328</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1330</v>
       </c>
@@ -13101,13 +13100,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C786" xr:uid="{99D04D78-D919-4A5A-8742-CCA1502681B2}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>